--- a/resources/TestExecutionReport.xlsx
+++ b/resources/TestExecutionReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumankadiyala/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumankadiyala/go/src/github.com/skckadiyala/cdwcorp/CDW-SF-Automation-Provar/CDW-SF-TestAutomation/templates/Resources/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB93336-A192-4149-A1E4-EC16E3578FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54BFB62-9391-6248-9DBF-632A1E327A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>automationTool</t>
   </si>
@@ -34,34 +34,61 @@
     <t>testStartTime</t>
   </si>
   <si>
-    <t>2023-03-13 16:38:36.413</t>
+    <t>2023-05-10 10:40:11.047</t>
   </si>
   <si>
     <t>testEndTime</t>
   </si>
   <si>
-    <t>2023-03-13 16:38:42.08</t>
+    <t>2023-05-10 10:40:35.965</t>
   </si>
   <si>
     <t>duration</t>
   </si>
   <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>CommQA</t>
+  </si>
+  <si>
+    <t>ReleaseNo</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>productTeam</t>
+  </si>
+  <si>
+    <t>testPath</t>
+  </si>
+  <si>
+    <t>tests/Functional/SF-API/Account/CreateAccountsFromDataSheet.testcase</t>
+  </si>
+  <si>
+    <t>testScriptName</t>
+  </si>
+  <si>
+    <t>CreateAccountsFromDataSheet.testcase</t>
+  </si>
+  <si>
+    <t>testOutCome</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
     <t>testName</t>
   </si>
   <si>
     <t xml:space="preserve">CreateAccountSMBwithNonRequiredFields </t>
   </si>
   <si>
-    <t>testPath</t>
-  </si>
-  <si>
-    <t>tests\Functional\SF-API\Account\CreateAccountsFromDataSheet.testcase</t>
-  </si>
-  <si>
-    <t>testOutCome</t>
-  </si>
-  <si>
-    <t>successful</t>
+    <t>testCaseResult</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
   <si>
     <t>testError</t>
@@ -70,191 +97,233 @@
     <t>_null_</t>
   </si>
   <si>
-    <t>2023-03-13 16:38:43.388</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:38:45.444</t>
+    <t>execError</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:40:38.444</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:40:47.771</t>
   </si>
   <si>
     <t xml:space="preserve">CreateAccountCORPwithNonRequiredFields </t>
   </si>
   <si>
-    <t>2023-03-13 16:38:45.675</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:38:47.798</t>
+    <t>2023-05-10 10:40:48.378</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:40:52.616</t>
   </si>
   <si>
     <t xml:space="preserve">CreateAccountHCwithNonRequiredFields </t>
   </si>
   <si>
-    <t>2023-03-13 16:38:48.056</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:38:50.513</t>
+    <t>2023-05-10 10:40:53.127</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:40:56.134</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
   <si>
     <t xml:space="preserve">CreateAccountHEwithNonRequiredFields </t>
   </si>
   <si>
-    <t>2023-03-13 16:38:50.741</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:38:53.336</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>_Warning: Nashorn engine is planned to be removed from a future JDK release,Failed to create Object.  Error Messages: bad value for restricted picklist field: 01,Failed to delete Object.  Error Messages: entity is deleted]_</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:40:56.762</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:41:00.862</t>
   </si>
   <si>
     <t xml:space="preserve">CreateAccountK12withNonRequiredFields </t>
   </si>
   <si>
-    <t>2023-03-13 16:38:53.555</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:38:55.34</t>
+    <t>2023-05-10 10:41:01.43</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:41:05.375</t>
   </si>
   <si>
     <t xml:space="preserve">CreateAccountwithSMBRequiredFields </t>
   </si>
   <si>
-    <t>2023-03-13 16:38:55.542</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:38:57.249</t>
+    <t>2023-05-10 10:41:05.887</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:41:09.717</t>
   </si>
   <si>
     <t xml:space="preserve">CreateAccountCORPwithRequiredFields </t>
   </si>
   <si>
-    <t>2023-03-13 16:38:57.477</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:38:59.657</t>
+    <t>2023-05-10 10:41:10.216</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:41:14.285</t>
   </si>
   <si>
     <t xml:space="preserve">CreateAccountHCwithRequiredFields </t>
   </si>
   <si>
-    <t>2023-03-13 16:38:59.915</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:01.9</t>
+    <t>2023-05-10 10:41:14.981</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:41:19.235</t>
   </si>
   <si>
     <t xml:space="preserve">CreateAccountHEwithRequiredFields </t>
   </si>
   <si>
-    <t>2023-03-13 16:39:02.14</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:05.166</t>
+    <t>2023-05-10 10:41:19.72</t>
+  </si>
+  <si>
+    <t>2023-05-10 10:41:23.464</t>
   </si>
   <si>
     <t xml:space="preserve">CreateAccountK12withRequiredFields </t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:11.624</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:15.4</t>
-  </si>
-  <si>
-    <t>CreateContactForSMBwithNonRequiredFields</t>
-  </si>
-  <si>
-    <t>tests\Functional\SF-API\Contact\CreateContactForAccount.testcase</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:15.618</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:19.878</t>
-  </si>
-  <si>
-    <t>CreateContactForCORPwithNonRequiredFields</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:20.125</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:23.456</t>
-  </si>
-  <si>
-    <t>CreateContactForHCwithNonRequiredFields</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:23.69</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:26.707</t>
-  </si>
-  <si>
-    <t>CreateContactForHEwithNonRequiredFields</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:27.011</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:31.117</t>
-  </si>
-  <si>
-    <t>CreateContactForK12withNonRequiredFields</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:31.363</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:34.678</t>
-  </si>
-  <si>
-    <t>CreateContactForSMBRequiredFields</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:34.95</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:37.897</t>
-  </si>
-  <si>
-    <t>CreateContactForCORPwithRequiredFields</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:38.159</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:42.425</t>
-  </si>
-  <si>
-    <t>CreateContactForHCwithRequiredFields</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:42.696</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:45.724</t>
-  </si>
-  <si>
-    <t>CreateContactForHEwithRequiredFields</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:46.006</t>
-  </si>
-  <si>
-    <t>2023-03-13 16:39:49.26</t>
-  </si>
-  <si>
-    <t>CreateContactForK12withRequiredFields</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -273,12 +342,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,25 +712,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="67.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1484375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.52734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.19140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.19140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.57421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.25" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.22265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.89453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="66.68359375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="36.2890625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.74609375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="39.94140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.07421875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="196.0859375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="196.0859375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="41.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="181.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,15 +767,33 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -653,8 +801,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>5.6669999999999998</v>
+      <c r="E2" t="n">
+        <v>24.918</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -663,561 +811,451 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="n">
+        <v>1.0</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.327</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>2.056</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="n">
+        <v>1.0</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2.1230000000000002</v>
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.238</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="n">
+        <v>1.0</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>2.4569999999999999</v>
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.007</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="n">
+        <v>1.0</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>2.5950000000000002</v>
+        <v>39</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.1</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="n">
+        <v>1.0</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7">
-        <v>1.7849999999999999</v>
+        <v>42</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.945</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="n">
+        <v>1.0</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>1.7070000000000001</v>
+        <v>45</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.83</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="n">
+        <v>1.0</v>
       </c>
       <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.069</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="n">
+        <v>1.0</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10">
-        <v>1.9850000000000001</v>
+        <v>51</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.254</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="n">
+        <v>1.0</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11">
-        <v>3.0259999999999998</v>
+        <v>54</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.744</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12">
-        <v>3.7759999999999998</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13">
-        <v>4.26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14">
-        <v>3.331</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15">
-        <v>3.0169999999999999</v>
-      </c>
-      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
         <v>55</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16">
-        <v>4.1059999999999999</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17">
-        <v>3.3149999999999999</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18">
-        <v>2.9470000000000001</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19">
-        <v>4.266</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20">
-        <v>3.028</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21">
-        <v>3.254</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
